--- a/src/main/resources/input/user_data.xlsx
+++ b/src/main/resources/input/user_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft-projects\azure-ad-exam\src\main\resources\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/developer/workspace/azure-ad-exam/src/main/resources/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC86235-9AEF-4692-B84B-8A663F75CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268F55D-B737-4044-BB79-779DACF22AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="496">
   <si>
     <t>Jorge</t>
   </si>
@@ -1376,9 +1376,6 @@
     <t>Michan</t>
   </si>
   <si>
-    <t>albertosm32 @hotmail.com</t>
-  </si>
-  <si>
     <t>Alberto Senado Michan</t>
   </si>
   <si>
@@ -1391,21 +1388,6 @@
     <t>Juan Alberto González Rincón</t>
   </si>
   <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luna </t>
-  </si>
-  <si>
-    <t>jesus.luna@gmail.com.mx</t>
-  </si>
-  <si>
-    <t>Jesus Luna</t>
-  </si>
-  <si>
     <t>Marisol</t>
   </si>
   <si>
@@ -1524,6 +1506,24 @@
   </si>
   <si>
     <t>Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha Claudia Morín Arreguín </t>
+  </si>
+  <si>
+    <t>cm.capacitacionprofesional@gmail.com</t>
+  </si>
+  <si>
+    <t>Morin</t>
+  </si>
+  <si>
+    <t>Morín</t>
+  </si>
+  <si>
+    <t>Arreguín</t>
+  </si>
+  <si>
+    <t>albertosm32@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1874,26 +1874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L1,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="A1:A32" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L1,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Alberto</v>
       </c>
       <c r="B1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O1,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Senado</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="L1" t="s">
         <v>109</v>
@@ -1905,9 +1903,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L2,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Alejandro</v>
       </c>
       <c r="B2" t="str">
@@ -1933,13 +1931,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L3,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Alfonso</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>348</v>
@@ -1960,13 +1958,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L4,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Ana</v>
       </c>
       <c r="B4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O4,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="B4:B32" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O4,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Gomez</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1988,13 +1986,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L5,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Angel</v>
       </c>
       <c r="B5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O5,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Esparza</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2016,13 +2014,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L6,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Angel</v>
       </c>
       <c r="B6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O6,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Rodriguez</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2044,38 +2042,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L7,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Angel</v>
       </c>
       <c r="B7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O7,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Diaz</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L7" t="s">
         <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L8,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Antonio</v>
       </c>
       <c r="B8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O8,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Cuenca</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2094,13 +2092,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L9,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Armando</v>
       </c>
       <c r="B9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O9,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Barreto</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2122,13 +2120,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L10,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Arturo</v>
       </c>
       <c r="B10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O10,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Barrera</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2150,13 +2148,13 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L11,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Azucena</v>
       </c>
       <c r="B11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O11,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Gonzalez</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2178,13 +2176,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L12,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Balfre</v>
       </c>
       <c r="B12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O12,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Morales</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2206,13 +2204,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L13,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Barbara</v>
       </c>
       <c r="B13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O13,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Garcia</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2231,13 +2229,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L14,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Belem</v>
       </c>
       <c r="B14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O14,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Mora</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2259,13 +2257,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L15,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Blanca</v>
       </c>
       <c r="B15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O15,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Lazcano</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2287,13 +2285,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L16,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Carlos</v>
       </c>
       <c r="B16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O16,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Delgado</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2315,13 +2313,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L17,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Carlos</v>
       </c>
       <c r="B17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O17,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Gonzalez</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2343,13 +2341,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L18,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Carlos</v>
       </c>
       <c r="B18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O18,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Martinez</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2371,13 +2369,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L19,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Claudia</v>
       </c>
       <c r="B19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O19,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Zapata</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2399,13 +2397,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L20,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Dalia</v>
       </c>
       <c r="B20" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O20,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Tola</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2427,13 +2425,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L21,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>David</v>
       </c>
       <c r="B21" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O21,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Tapia</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2452,13 +2450,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L22,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>David</v>
       </c>
       <c r="B22" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O22,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Peralta</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2480,13 +2478,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L23,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>David</v>
       </c>
       <c r="B23" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O23,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Moreno</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2508,13 +2506,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L24,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Diana</v>
       </c>
       <c r="B24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O24,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Noriega</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2536,13 +2534,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L25,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Diana</v>
       </c>
       <c r="B25" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O25,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Tapia</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2561,13 +2559,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L26,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Diego</v>
       </c>
       <c r="B26" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O26,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Martinez</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2586,13 +2584,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L27,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Dolores</v>
       </c>
       <c r="B27" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O27,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Lafuente</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2614,13 +2612,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L28,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Edgar</v>
       </c>
       <c r="B28" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O28,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Ortega</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2639,13 +2637,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L29,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Edgar</v>
       </c>
       <c r="B29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O29,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Garzon</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2667,13 +2665,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L30,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Enrique</v>
       </c>
       <c r="B30" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O30,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Chavira</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2692,17 +2690,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L31,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Enrique</v>
       </c>
       <c r="B31" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O31,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Jackson</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>325</v>
@@ -2720,13 +2718,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L32,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="0"/>
         <v>Erika</v>
       </c>
       <c r="B32" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O32,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="1"/>
         <v>Castro</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2748,13 +2746,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L33,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="A33:A52" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L33,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Erika</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2785,13 +2783,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L34,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Estefania</v>
       </c>
       <c r="B34" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>269</v>
@@ -2812,13 +2810,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L35,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Felix</v>
       </c>
       <c r="B35" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>357</v>
@@ -2839,13 +2837,13 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L36,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Fernando</v>
       </c>
       <c r="B36" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O36,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="B36:B42" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O36,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Velasco</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2870,13 +2868,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L37,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Fernando</v>
       </c>
       <c r="B37" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O37,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Diez</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2898,13 +2896,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L38,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Francisco</v>
       </c>
       <c r="B38" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O38,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Lopez</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2926,13 +2924,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L39,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Gabriela</v>
       </c>
       <c r="B39" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O39,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Soule</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2951,13 +2949,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L40,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Gabriela</v>
       </c>
       <c r="B40" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O40,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Gutierrez</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2976,13 +2974,13 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L41,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Gerardo</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O41,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Estrada</v>
       </c>
       <c r="C41" s="3"/>
@@ -3012,13 +3010,13 @@
       </c>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L42,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>German</v>
       </c>
       <c r="B42" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O42,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="3"/>
         <v>Salgado</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3040,13 +3038,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L43,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>German</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>138</v>
@@ -3067,13 +3065,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L44,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Gloria</v>
       </c>
       <c r="B44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O44,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="B44:B52" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O44,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Viquez</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3092,13 +3090,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L45,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Gonzalo</v>
       </c>
       <c r="B45" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O45,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Obregon</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3120,13 +3118,13 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L46,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Hector</v>
       </c>
       <c r="B46" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O46,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Bautista</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3145,13 +3143,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L47,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Hector</v>
       </c>
       <c r="B47" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O47,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Pichardo</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3170,13 +3168,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L48,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Hector</v>
       </c>
       <c r="B48" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O48,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Fuentes</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3195,13 +3193,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L49,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Irving</v>
       </c>
       <c r="B49" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O49,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Espinosa</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3223,17 +3221,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L50,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Jacqueline</v>
       </c>
       <c r="B50" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O50,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Garcia</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>162</v>
@@ -3251,13 +3249,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L51,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>jaime</v>
       </c>
       <c r="B51" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O51,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>sanchez</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3279,13 +3277,13 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L52,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="2"/>
         <v>Jakeline</v>
       </c>
       <c r="B52" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O52,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="4"/>
         <v>Monroy</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3304,1500 +3302,1501 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L53,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Jesus</v>
+        <f t="shared" ref="A53:A63" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L53,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <v>Jhoana</v>
       </c>
       <c r="B53" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O53,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v xml:space="preserve">Luna </v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>454</v>
+        <f t="shared" ref="B53:B74" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O53,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <v>Perez</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="M53" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="O53" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="P53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L54,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Jhoana</v>
+        <f t="shared" si="5"/>
+        <v>Joaquin</v>
       </c>
       <c r="B54" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O54,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Perez</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>490</v>
+        <f t="shared" si="6"/>
+        <v>Lugo</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s">
-        <v>479</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="P54" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L55,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Joaquin</v>
+        <f t="shared" si="5"/>
+        <v>Jorge</v>
       </c>
       <c r="B55" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O55,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Lugo</v>
+        <f t="shared" si="6"/>
+        <v>Martinez</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>425</v>
+        <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="L55" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>311</v>
-      </c>
-      <c r="O55" t="s">
-        <v>423</v>
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="P55" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L56,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Jorge</v>
       </c>
       <c r="B56" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O56,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Martinez</v>
+        <f t="shared" si="6"/>
+        <v>Hernandez</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="L56" t="s">
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>1</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="O56" t="s">
+        <v>257</v>
       </c>
       <c r="P56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L57,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Jorge</v>
+        <f t="shared" si="5"/>
+        <v>Jose</v>
       </c>
       <c r="B57" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O57,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Hernandez</v>
+        <f t="shared" si="6"/>
+        <v>Landero</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="M57" t="s">
-        <v>256</v>
+        <v>119</v>
+      </c>
+      <c r="N57" t="s">
+        <v>120</v>
       </c>
       <c r="O57" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L58,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Jose</v>
       </c>
       <c r="B58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O58,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Landero</v>
+        <f t="shared" si="6"/>
+        <v>Garcia</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s">
         <v>118</v>
       </c>
       <c r="M58" t="s">
-        <v>119</v>
-      </c>
-      <c r="N58" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="O58" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L59,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Jose</v>
       </c>
       <c r="B59" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O59,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Garcia</v>
+        <f t="shared" si="6"/>
+        <v>Estrada</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="L59" t="s">
         <v>118</v>
       </c>
       <c r="M59" t="s">
-        <v>176</v>
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>48</v>
       </c>
       <c r="O59" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L60,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Jose</v>
       </c>
       <c r="B60" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O60,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Estrada</v>
+        <f t="shared" si="6"/>
+        <v>Hernandez</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>192</v>
+        <v>377</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>193</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s">
         <v>118</v>
       </c>
-      <c r="M60" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" t="s">
-        <v>48</v>
-      </c>
       <c r="O60" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L61,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Jose</v>
+        <f t="shared" si="5"/>
+        <v>Juan</v>
       </c>
       <c r="B61" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O61,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Hernandez</v>
+        <f t="shared" si="6"/>
+        <v>San</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s">
-        <v>118</v>
+        <v>209</v>
+      </c>
+      <c r="M61" t="s">
+        <v>210</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="P61" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L62,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Juan</v>
       </c>
       <c r="B62" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O62,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>San</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>212</v>
+        <f t="shared" si="6"/>
+        <v>Meza</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="L62" t="s">
         <v>209</v>
       </c>
       <c r="M62" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="O62" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L63,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="5"/>
         <v>Juan</v>
       </c>
       <c r="B63" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O63,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Meza</v>
+        <f t="shared" si="6"/>
+        <v>Arce</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L63" t="s">
         <v>209</v>
       </c>
       <c r="M63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O63" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="P63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L64,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" ref="A64:A95" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L64,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
         <v>Juan</v>
       </c>
       <c r="B64" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O64,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Arce</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>488</v>
+        <f t="shared" si="6"/>
+        <v>Gonzalez</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s">
         <v>209</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O64" t="s">
-        <v>374</v>
+        <v>201</v>
       </c>
       <c r="P64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L65,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Juan</v>
+        <f t="shared" si="7"/>
+        <v>Julio</v>
       </c>
       <c r="B65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O65,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Gonzalez</v>
+        <f t="shared" si="6"/>
+        <v>Jaimes</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>449</v>
+        <v>233</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="L65" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="O65" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="P65" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L66,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Julio</v>
+        <f t="shared" si="7"/>
+        <v>Karla</v>
       </c>
       <c r="B66" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O66,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Jaimes</v>
+        <f t="shared" si="6"/>
+        <v>Franco</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>233</v>
+        <v>442</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>234</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
-      </c>
-      <c r="M66" t="s">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="O66" t="s">
-        <v>231</v>
+        <v>441</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L67,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Karla</v>
+        <f t="shared" si="7"/>
+        <v>Luis</v>
       </c>
       <c r="B67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O67,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Franco</v>
+        <f t="shared" si="6"/>
+        <v>Calderon</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>442</v>
+        <v>189</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>443</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s">
-        <v>440</v>
+        <v>186</v>
+      </c>
+      <c r="M67" t="s">
+        <v>120</v>
       </c>
       <c r="O67" t="s">
-        <v>441</v>
+        <v>187</v>
       </c>
       <c r="P67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L68,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="7"/>
         <v>Luis</v>
       </c>
       <c r="B68" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O68,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Calderon</v>
+        <f t="shared" si="6"/>
+        <v>Armendariz</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="L68" t="s">
         <v>186</v>
       </c>
       <c r="M68" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="O68" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L69,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Luis</v>
+        <f t="shared" si="7"/>
+        <v>Luz</v>
       </c>
       <c r="B69" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O69,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Armendariz</v>
+        <f t="shared" si="6"/>
+        <v>Carrasco</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="L69" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="M69" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="O69" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="P69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L70,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Luz</v>
+        <f t="shared" si="7"/>
+        <v>Manuel</v>
       </c>
       <c r="B70" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O70,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Carrasco</v>
+        <f t="shared" si="6"/>
+        <v>Lopez</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="L70" t="s">
-        <v>271</v>
-      </c>
-      <c r="M70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" t="s">
+        <v>39</v>
+      </c>
+      <c r="P70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="shared" si="7"/>
+        <v>Maria</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="6"/>
+        <v>Carrizosa</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" t="s">
         <v>12</v>
       </c>
-      <c r="O70" t="s">
-        <v>272</v>
-      </c>
-      <c r="P70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L71,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Manuel</v>
-      </c>
-      <c r="B71" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O71,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Lopez</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L71" t="s">
-        <v>20</v>
+      <c r="M71" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" t="s">
+        <v>14</v>
       </c>
       <c r="O71" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="P71" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L72,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="7"/>
         <v>Maria</v>
       </c>
       <c r="B72" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O72,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Carrizosa</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>Cruz</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s">
         <v>12</v>
       </c>
       <c r="M72" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="O72" t="s">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="P72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L73,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="7"/>
         <v>Maria</v>
       </c>
       <c r="B73" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O73,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="6"/>
         <v>Cruz</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>489</v>
+      <c r="F73" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O73" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P73" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L74,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Maria</v>
+        <f t="shared" si="7"/>
+        <v>Mariana</v>
       </c>
       <c r="B74" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O74,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Cruz</v>
+        <f t="shared" si="6"/>
+        <v>Mureddu</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="O74" t="s">
-        <v>468</v>
+        <v>319</v>
       </c>
       <c r="P74" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L75,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="7"/>
         <v>Mariana</v>
       </c>
-      <c r="B75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O75,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Mureddu</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>321</v>
+      <c r="B75" t="s">
+        <v>488</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s">
         <v>133</v>
       </c>
       <c r="O75" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L76,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Mariana</v>
-      </c>
-      <c r="B76" t="s">
-        <v>494</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>484</v>
+        <f t="shared" si="7"/>
+        <v>Marisol</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" ref="B76:B106" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O76,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <v>Ramirez</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="L76" t="s">
-        <v>133</v>
+        <v>450</v>
+      </c>
+      <c r="M76" t="s">
+        <v>451</v>
       </c>
       <c r="O76" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="P76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L77,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Marisol</v>
+        <f t="shared" si="7"/>
+        <v>Martha</v>
       </c>
       <c r="B77" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O77,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ramirez</v>
+        <f t="shared" si="8"/>
+        <v>Gutierrez</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" t="s">
+        <v>167</v>
+      </c>
+      <c r="M77" t="s">
+        <v>168</v>
+      </c>
+      <c r="O77" t="s">
+        <v>122</v>
+      </c>
+      <c r="P77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="7"/>
+        <v>Mauricio</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="8"/>
+        <v>Alaniz</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="L78" t="s">
+        <v>465</v>
+      </c>
+      <c r="O78" t="s">
+        <v>466</v>
+      </c>
+      <c r="P78" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="7"/>
+        <v>Melanie</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="8"/>
+        <v>Ruelas</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L79" t="s">
+        <v>64</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="7"/>
+        <v>Miguel</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="8"/>
+        <v>Arteaga</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L80" t="s">
+        <v>405</v>
+      </c>
+      <c r="M80" t="s">
+        <v>406</v>
+      </c>
+      <c r="O80" t="s">
+        <v>407</v>
+      </c>
+      <c r="P80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="7"/>
+        <v>Monica</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="8"/>
+        <v>Ortega</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L81" t="s">
+        <v>53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>54</v>
+      </c>
+      <c r="P81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="7"/>
+        <v>Nancy</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="8"/>
+        <v>Andaracua</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L82" t="s">
+        <v>331</v>
+      </c>
+      <c r="O82" t="s">
+        <v>332</v>
+      </c>
+      <c r="P82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="shared" si="7"/>
+        <v>Noe</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="8"/>
+        <v>Olmos</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L83" t="s">
+        <v>47</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" t="s">
+        <v>48</v>
+      </c>
+      <c r="O83" t="s">
+        <v>49</v>
+      </c>
+      <c r="P83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="shared" si="7"/>
+        <v>Omar</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="8"/>
+        <v>Sanchez</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L84" t="s">
+        <v>90</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" si="7"/>
+        <v>Pablo</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="8"/>
+        <v>Salazar</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" t="s">
+        <v>99</v>
+      </c>
+      <c r="O85" t="s">
+        <v>100</v>
+      </c>
+      <c r="P85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="7"/>
+        <v>Patricia</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="8"/>
+        <v>Gomez</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L86" t="s">
+        <v>168</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="s">
         <v>458</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L77" t="s">
-        <v>456</v>
-      </c>
-      <c r="M77" t="s">
-        <v>457</v>
-      </c>
-      <c r="O77" t="s">
-        <v>412</v>
-      </c>
-      <c r="P77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L78,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Martha</v>
-      </c>
-      <c r="B78" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O78,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Gutierrez</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L78" t="s">
-        <v>167</v>
-      </c>
-      <c r="M78" t="s">
-        <v>168</v>
-      </c>
-      <c r="O78" t="s">
-        <v>122</v>
-      </c>
-      <c r="P78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L79,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Mauricio</v>
-      </c>
-      <c r="B79" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O79,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Alaniz</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="L79" t="s">
-        <v>471</v>
-      </c>
-      <c r="O79" t="s">
-        <v>472</v>
-      </c>
-      <c r="P79" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L80,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Melanie</v>
-      </c>
-      <c r="B80" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O80,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ruelas</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L80" t="s">
-        <v>64</v>
-      </c>
-      <c r="O80" t="s">
-        <v>65</v>
-      </c>
-      <c r="P80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L81,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Miguel</v>
-      </c>
-      <c r="B81" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O81,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Arteaga</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L81" t="s">
-        <v>405</v>
-      </c>
-      <c r="M81" t="s">
-        <v>406</v>
-      </c>
-      <c r="O81" t="s">
-        <v>407</v>
-      </c>
-      <c r="P81" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L82,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Monica</v>
-      </c>
-      <c r="B82" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O82,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ortega</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L82" t="s">
-        <v>53</v>
-      </c>
-      <c r="O82" t="s">
-        <v>54</v>
-      </c>
-      <c r="P82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L83,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Nancy</v>
-      </c>
-      <c r="B83" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O83,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Andaracua</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L83" t="s">
-        <v>331</v>
-      </c>
-      <c r="O83" t="s">
-        <v>332</v>
-      </c>
-      <c r="P83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L84,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Noe</v>
-      </c>
-      <c r="B84" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O84,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Olmos</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L84" t="s">
-        <v>47</v>
-      </c>
-      <c r="M84" t="s">
-        <v>26</v>
-      </c>
-      <c r="N84" t="s">
-        <v>48</v>
-      </c>
-      <c r="O84" t="s">
-        <v>49</v>
-      </c>
-      <c r="P84" t="s">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="shared" si="7"/>
+        <v>Paulina</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="8"/>
+        <v>Castillo</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L87" t="s">
+        <v>294</v>
+      </c>
+      <c r="O87" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L85,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Omar</v>
-      </c>
-      <c r="B85" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O85,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Sanchez</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L85" t="s">
-        <v>90</v>
-      </c>
-      <c r="O85" t="s">
-        <v>101</v>
-      </c>
-      <c r="P85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L86,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Pablo</v>
-      </c>
-      <c r="B86" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O86,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Salazar</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L86" t="s">
-        <v>99</v>
-      </c>
-      <c r="O86" t="s">
-        <v>100</v>
-      </c>
-      <c r="P86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L87,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Patricia</v>
-      </c>
-      <c r="B87" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O87,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Gomez</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="L87" t="s">
-        <v>168</v>
-      </c>
-      <c r="O87" t="s">
-        <v>66</v>
-      </c>
       <c r="P87" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L88,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Paulina</v>
+        <f t="shared" si="7"/>
+        <v>Priscila</v>
       </c>
       <c r="B88" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O88,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Castillo</v>
+        <f t="shared" si="8"/>
+        <v>Marin</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L88" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O88" t="s">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L89,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Priscila</v>
+        <f t="shared" si="7"/>
+        <v>Raul</v>
       </c>
       <c r="B89" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O89,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Marin</v>
+        <f t="shared" si="8"/>
+        <v>Howe</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="L89" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="O89" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L90,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Raul</v>
+        <f t="shared" si="7"/>
+        <v>Renato</v>
       </c>
       <c r="B90" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O90,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Howe</v>
+        <f t="shared" si="8"/>
+        <v>Alcantara</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="L90" t="s">
-        <v>125</v>
+        <v>350</v>
+      </c>
+      <c r="M90" t="s">
+        <v>20</v>
       </c>
       <c r="O90" t="s">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="P90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L91,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Renato</v>
+        <f t="shared" si="7"/>
+        <v>Rene</v>
       </c>
       <c r="B91" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O91,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Alcantara</v>
+        <f t="shared" si="8"/>
+        <v>Martinez</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="L91" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="M91" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="O91" t="s">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L92,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Rene</v>
+        <f t="shared" si="7"/>
+        <v>Ricardo</v>
       </c>
       <c r="B92" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O92,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Martinez</v>
+        <f t="shared" si="8"/>
+        <v>Rico</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="L92" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="M92" t="s">
         <v>78</v>
       </c>
       <c r="O92" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L93,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ricardo</v>
+        <f t="shared" si="7"/>
+        <v>Roberto</v>
       </c>
       <c r="B93" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O93,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Rico</v>
+        <f t="shared" si="8"/>
+        <v>Gamboa</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>367</v>
+        <v>243</v>
       </c>
       <c r="L93" t="s">
-        <v>363</v>
-      </c>
-      <c r="M93" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="O93" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="P93" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L94,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="7"/>
         <v>Roberto</v>
       </c>
       <c r="B94" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O94,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Gamboa</v>
+        <f t="shared" si="8"/>
+        <v>Sanchez</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L94" t="s">
         <v>210</v>
       </c>
       <c r="O94" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L95,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Roberto</v>
+        <f t="shared" si="7"/>
+        <v>Rosario</v>
       </c>
       <c r="B95" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O95,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Sanchez</v>
+        <f t="shared" si="8"/>
+        <v>Hernandez</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="L95" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="O95" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L96,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Rosario</v>
+        <f t="shared" ref="A96:A105" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L96,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <v>Ruben</v>
       </c>
       <c r="B96" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O96,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Hernandez</v>
+        <f t="shared" si="8"/>
+        <v>Quero</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="L96" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="O96" t="s">
-        <v>61</v>
+        <v>337</v>
       </c>
       <c r="P96" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L97,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="9"/>
         <v>Ruben</v>
       </c>
       <c r="B97" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O97,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Quero</v>
+        <f t="shared" si="8"/>
+        <v>Rodriguez</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
       <c r="L97" t="s">
         <v>336</v>
       </c>
       <c r="O97" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="P97" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L98,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ruben</v>
+        <f t="shared" si="9"/>
+        <v>Sandra</v>
       </c>
       <c r="B98" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O98,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Rodriguez</v>
+        <f t="shared" si="8"/>
+        <v>Meza</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>477</v>
+        <v>254</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>478</v>
+        <v>255</v>
       </c>
       <c r="L98" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="O98" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L99,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Sandra</v>
+        <f t="shared" si="9"/>
+        <v>Sara</v>
       </c>
       <c r="B99" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O99,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Meza</v>
+        <f t="shared" si="8"/>
+        <v>Perez</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="L99" t="s">
-        <v>252</v>
+        <v>146</v>
+      </c>
+      <c r="M99" t="s">
+        <v>147</v>
       </c>
       <c r="O99" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L100,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Sara</v>
-      </c>
-      <c r="B100" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O100,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Silvia</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>Perez</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L100" t="s">
-        <v>146</v>
-      </c>
-      <c r="M100" t="s">
-        <v>147</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L101,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Silvia</v>
-      </c>
-      <c r="B101" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O101,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Perez</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P101" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f t="shared" si="9"/>
+        <v>Victor</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="8"/>
+        <v>Monroy</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+      <c r="P101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L102,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
+        <f t="shared" si="9"/>
         <v>Victor</v>
       </c>
       <c r="B102" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O102,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Monroy</v>
+        <f t="shared" si="8"/>
+        <v>Aguilar</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="L102" t="s">
+        <v>261</v>
+      </c>
+      <c r="M102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Victor</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Medina</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M102" t="s">
-        <v>20</v>
-      </c>
-      <c r="O102" t="s">
-        <v>21</v>
-      </c>
-      <c r="P102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L103,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Victor</v>
-      </c>
-      <c r="B103" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O103,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Aguilar</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L103" t="s">
-        <v>261</v>
-      </c>
-      <c r="M103" t="s">
-        <v>0</v>
-      </c>
-      <c r="O103" t="s">
-        <v>92</v>
-      </c>
-      <c r="P103" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L104,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Victor</v>
-      </c>
-      <c r="B104" s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O104,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Medina</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M104" s="3" t="s">
+      <c r="M103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N104" s="3" t="s">
+      <c r="N103" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O104" s="3" t="s">
+      <c r="O103" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f t="shared" si="9"/>
+        <v>Yadira</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="8"/>
+        <v>Rojas</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L104" t="s">
+        <v>314</v>
+      </c>
+      <c r="M104" t="s">
+        <v>315</v>
+      </c>
+      <c r="O104" t="s">
+        <v>197</v>
+      </c>
+      <c r="P104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L105,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Yadira</v>
+        <f t="shared" si="9"/>
+        <v>Yaira</v>
       </c>
       <c r="B105" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O105,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Rojas</v>
+        <f t="shared" si="8"/>
+        <v>Ramirez</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>318</v>
+        <v>415</v>
       </c>
       <c r="L105" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="M105" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="O105" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L106,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Yaira</v>
+        <v>Yessenia</v>
       </c>
       <c r="B106" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O106,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Ramirez</v>
+        <f t="shared" si="8"/>
+        <v>Salazar</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>414</v>
+        <v>157</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="L106" t="s">
-        <v>411</v>
-      </c>
-      <c r="M106" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="O106" t="s">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="P106" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L107,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Yessenia</v>
-      </c>
-      <c r="B107" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O107,"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u")</f>
-        <v>Salazar</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>492</v>
+      </c>
+      <c r="F107" t="s">
+        <v>491</v>
+      </c>
+      <c r="H107" t="s">
+        <v>490</v>
       </c>
       <c r="L107" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="M107" t="s">
+        <v>6</v>
       </c>
       <c r="O107" t="s">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="P107" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -4805,16 +4804,17 @@
     <sortCondition ref="A1:A107"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F80" r:id="rId1" xr:uid="{2642A274-E730-4C2C-B198-E396A8D74247}"/>
-    <hyperlink ref="F76" r:id="rId2" xr:uid="{8DB04A5E-CBB0-4DBE-9A41-ECC951DC97FB}"/>
+    <hyperlink ref="F79" r:id="rId1" xr:uid="{2642A274-E730-4C2C-B198-E396A8D74247}"/>
+    <hyperlink ref="F75" r:id="rId2" xr:uid="{8DB04A5E-CBB0-4DBE-9A41-ECC951DC97FB}"/>
     <hyperlink ref="F50" r:id="rId3" xr:uid="{BA227599-DF8F-44E2-9D7E-F17F0C188837}"/>
     <hyperlink ref="F31" r:id="rId4" xr:uid="{EA7DDF8E-BBA8-4DF9-A794-8DF5269736FE}"/>
-    <hyperlink ref="F63" r:id="rId5" xr:uid="{3E342D61-7FA6-4C1D-B316-49E9AB516469}"/>
-    <hyperlink ref="F64" r:id="rId6" xr:uid="{A764A86E-43F5-463D-B6C0-50826C2EC821}"/>
-    <hyperlink ref="F73" r:id="rId7" xr:uid="{EFDF2936-EF65-42FC-B5C8-43C71DF1F7B2}"/>
-    <hyperlink ref="F54" r:id="rId8" xr:uid="{6C953388-DAC0-4AC8-8DC0-F358371171DE}"/>
+    <hyperlink ref="F62" r:id="rId5" xr:uid="{3E342D61-7FA6-4C1D-B316-49E9AB516469}"/>
+    <hyperlink ref="F63" r:id="rId6" xr:uid="{A764A86E-43F5-463D-B6C0-50826C2EC821}"/>
+    <hyperlink ref="F72" r:id="rId7" xr:uid="{EFDF2936-EF65-42FC-B5C8-43C71DF1F7B2}"/>
+    <hyperlink ref="F53" r:id="rId8" xr:uid="{6C953388-DAC0-4AC8-8DC0-F358371171DE}"/>
+    <hyperlink ref="F1" r:id="rId9" xr:uid="{48818719-62D6-0944-8113-64CDBB74486E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>